--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff0689c5a779a839/Documents/NSS/DA15/Excel/lookups-exercise-JWill90/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64A97D7-CAC0-43D8-B433-78F7B6AD8255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{D64A97D7-CAC0-43D8-B433-78F7B6AD8255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC99663-67AD-41A6-8DD8-3C61A94973BF}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="525" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metro_budget!$E$1:$E$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metro_budget!$J$1:$K$105</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Actual spending amount - budget amount for fiscal year 2019</t>
-  </si>
-  <si>
-    <t>XLOOKUP(3, F2:F52, B2:B52, "Not Found")</t>
   </si>
 </sst>
 </file>
@@ -784,7 +781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -827,8 +824,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -848,8 +846,9 @@
     <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -889,6 +888,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -904,6 +904,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491D8BF4-05A5-FCE1-4F27-0D110B24D7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12277725" y="14535150"/>
+          <a:ext cx="2143125" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Review</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Formulas for Percentages FY(s) by Dept.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1205,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90:M92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1214,9 +1304,9 @@
     <col min="1" max="1" width="32.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.9296875" customWidth="1"/>
     <col min="3" max="4" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.9296875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="26.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="15.86328125" customWidth="1"/>
     <col min="13" max="13" width="15.3984375" customWidth="1"/>
@@ -1837,11 +1927,11 @@
         <f>H11-G11</f>
         <v>-157733.05000000098</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="5">
         <f>IFERROR((I11/G11),"")</f>
         <v>-0.17551246244575608</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11">
         <f>IFERROR(_xlfn.RANK.EQ(J11, $J$2:$J$52, 1), "")</f>
         <v>1</v>
       </c>
@@ -3311,11 +3401,11 @@
         <f>H36-G36</f>
         <v>-326440.38000000082</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="11">
         <f>IFERROR((I36/G36),"")</f>
         <v>-3.6573903982970231E-2</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="13">
         <f>IFERROR(_xlfn.RANK.EQ(J36, $J$2:$J$52, 1), "")</f>
         <v>31</v>
       </c>
@@ -3961,8 +4051,7 @@
         <v>-9775.6299999952316</v>
       </c>
       <c r="J47" s="5">
-        <f>IFERROR((I47/G47),"")</f>
-        <v>-7.4142392760188761E-5</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <f>IFERROR(_xlfn.RANK.EQ(J47, $J$2:$J$52, 1), "")</f>
@@ -4023,7 +4112,7 @@
       </c>
       <c r="K48">
         <f>IFERROR(_xlfn.RANK.EQ(J48, $J$2:$J$52, 1), "")</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48">
         <v>375000</v>
@@ -4080,7 +4169,7 @@
       </c>
       <c r="K49">
         <f>IFERROR(_xlfn.RANK.EQ(J49, $J$2:$J$52, 1), "")</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4102,19 +4191,20 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>832600</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>832600</v>
       </c>
       <c r="D50" s="9">
         <f>C50-B50</f>
         <v>0</v>
       </c>
       <c r="E50" s="5">
+        <f>IFERROR((D50/B50),"")</f>
         <v>0</v>
       </c>
       <c r="F50" s="10">
@@ -4122,33 +4212,35 @@
         <v>47</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>859100</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>859100</v>
       </c>
       <c r="I50" s="9">
         <f>H50-G50</f>
         <v>0</v>
       </c>
       <c r="J50" s="5">
+        <f>IFERROR((I50/G50),"")</f>
         <v>0</v>
       </c>
       <c r="K50">
         <f>IFERROR(_xlfn.RANK.EQ(J50, $J$2:$J$52, 1), "")</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>843200</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>843200</v>
       </c>
       <c r="N50" s="9">
         <f>M50-L50</f>
         <v>0</v>
       </c>
       <c r="O50" s="5">
+        <f>IFERROR((N50/L50),"")</f>
         <v>0</v>
       </c>
       <c r="P50">
@@ -4158,20 +4250,19 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>832600</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>832600</v>
+        <v>0</v>
       </c>
       <c r="D51" s="9">
         <f>C51-B51</f>
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f>IFERROR((D51/B51),"")</f>
         <v>0</v>
       </c>
       <c r="F51" s="10">
@@ -4179,35 +4270,34 @@
         <v>47</v>
       </c>
       <c r="G51">
-        <v>859100</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>859100</v>
+        <v>0</v>
       </c>
       <c r="I51" s="9">
         <f>H51-G51</f>
         <v>0</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="5" t="str">
         <f>IFERROR((I51/G51),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K51">
+        <v/>
+      </c>
+      <c r="K51" t="str">
         <f>IFERROR(_xlfn.RANK.EQ(J51, $J$2:$J$52, 1), "")</f>
-        <v>48</v>
+        <v/>
       </c>
       <c r="L51">
-        <v>843200</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>843200</v>
+        <v>0</v>
       </c>
       <c r="N51" s="9">
         <f>M51-L51</f>
         <v>0</v>
       </c>
       <c r="O51" s="5">
-        <f>IFERROR((N51/L51),"")</f>
         <v>0</v>
       </c>
       <c r="P51">
@@ -4293,9 +4383,6 @@
       <c r="G53" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K53" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="s">
@@ -4768,35 +4855,83 @@
         <v>73</v>
       </c>
       <c r="B92" t="str">
-        <f>_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; IFERROR(INDEX(A2:A52, MATCH($F$2, $F$2:$F$52, 0)), "No Match")</f>
-        <v>Clerk and Master - Chancery</v>
-      </c>
-      <c r="C92" s="5"/>
+        <f>IFERROR(_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($F$2, $F$2:$F$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Clerk and Master - Chancery</v>
+      </c>
+      <c r="C92" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; " " &amp; INDEX(E2:E52, MATCH($F$2, $F$2:$F$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.152359184330913</v>
+      </c>
       <c r="D92" t="str">
-        <f>_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; IFERROR(INDEX(A2:A52, MATCH($F$3, $F$2:$F$52, 0)), "No Match")</f>
-        <v>Circuit Court Clerk</v>
-      </c>
-      <c r="E92" s="5"/>
+        <f>IFERROR(_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($F$3, $F$2:$F$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Circuit Court Clerk</v>
+      </c>
+      <c r="E92" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; " " &amp; INDEX(E3:E52, MATCH($F$2, $F$2:$F$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.115028173625713</v>
+      </c>
       <c r="F92" t="str">
-        <f>_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; IFERROR(INDEX(A2:A52, MATCH($F$4, $F$2:$F$52, 0)), "No Match")</f>
-        <v>Internal Audit</v>
-      </c>
-      <c r="G92" s="5"/>
+        <f>IFERROR(_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($F$4, $F$2:$F$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Internal Audit</v>
+      </c>
+      <c r="G92" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(F1, F2:F52, B2:B52, "") &amp; " " &amp; INDEX(E4:E52, MATCH($F$2, $F$2:$F$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.0957827608648492</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="B93" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(K1, K2:K52, G2:G52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($K$2, $K$2:$K$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Clerk and Master - Chancery</v>
+      </c>
+      <c r="C93" s="17" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(K1, K2:K52, G2:G52, "") &amp; " " &amp; INDEX(J2:J52, MATCH($K$2, $K$2:$K$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.130001892248702</v>
+      </c>
+      <c r="D93" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(K1, K2:K52, G2:G52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($K$3, $K$2:$K$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Circuit Court Clerk</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(K1, K2:K52, G2:G52, "") &amp; " " &amp; INDEX(J3:J52, MATCH($K$2, $K$2:$K$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.100096313663039</v>
+      </c>
+      <c r="F93" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(K1, K2:K52, G2:G52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($K$4, $K$2:$K$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Internal Audit</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(K1, K2:K52, G2:G52, "") &amp; " " &amp; INDEX(J4:J52, MATCH($K$2, $K$2:$K$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.171032393090509</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="B94" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(P1, P2:P52, L2:L52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($P$2, $P$2:$P$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Clerk and Master - Chancery</v>
+      </c>
+      <c r="C94" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(P1, P2:P52, L2:L52, "") &amp; " " &amp; INDEX(O2:O52, MATCH($P$2, $P$2:$P$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.152956803647192</v>
+      </c>
+      <c r="D94" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(P1, P2:P52, L2:L52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($P$3, $P$2:$P$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Circuit Court Clerk</v>
+      </c>
+      <c r="E94" s="5" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(O1, O2:O52, P2:P52, "") &amp; " " &amp; INDEX(O3:O52, MATCH($A$2, $A$2:$A$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> -0.119203611144326</v>
+      </c>
+      <c r="F94" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(P1, P2:P52, L2:L52, "") &amp; " " &amp; INDEX(A2:A52, MATCH($P$4, $P$2:$P$52, 0)),"No Match")</f>
+        <v xml:space="preserve"> Internal Audit</v>
+      </c>
       <c r="G94" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
@@ -4825,7 +4960,7 @@
         <v>73</v>
       </c>
       <c r="B98" t="str">
-        <f>INDEX(A2:A52, MATCH($F$2, $F$2:$F$52, 0))</f>
+        <f>INDEX( A2:A52, MATCH($F$2, $F$2:$F$52, 0))</f>
         <v>Clerk and Master - Chancery</v>
       </c>
       <c r="D98" t="str">
@@ -4846,11 +4981,23 @@
       <c r="A99" t="s">
         <v>74</v>
       </c>
+      <c r="B99" t="str">
+        <f>INDEX(A2:A52, MATCH($K$2, $K$2:$K$52, 0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
       <c r="C99" s="4"/>
+      <c r="D99" t="str">
+        <f>INDEX(A2:A52, MATCH($K$3, $K$2:$K$52, 0))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
       <c r="E99" s="4"/>
+      <c r="F99" t="str">
+        <f>INDEX(A2:A52, MATCH($K$4, $K$2:$K$52, 0))</f>
+        <v>Internal Audit</v>
+      </c>
       <c r="G99" s="4"/>
       <c r="H99" s="16" t="str">
-        <f t="shared" ref="H99:H102" si="0">INDEX(A3:A53, MATCH($F$2, $F$2:$F$52, 0))</f>
+        <f>INDEX(A3:A53, MATCH($F$2, $F$2:$F$52, 0))</f>
         <v>Circuit Court Clerk</v>
       </c>
       <c r="I99" s="4"/>
@@ -4859,40 +5006,51 @@
       <c r="A100" t="s">
         <v>75</v>
       </c>
+      <c r="B100" t="str">
+        <f>INDEX(A2:A52, MATCH($P$2, $P$2:$P$52, 0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
       <c r="C100" s="4"/>
+      <c r="D100" t="str">
+        <f>INDEX(A2:A52, MATCH($K$3, $K$2:$K$52, 0))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
       <c r="E100" s="4"/>
+      <c r="F100" t="str">
+        <f>INDEX(A2:A52, MATCH($K$4, $K$2:$K$52, 0))</f>
+        <v>Internal Audit</v>
+      </c>
       <c r="G100" s="4"/>
       <c r="H100" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX(A4:A54, MATCH($F$2, $F$2:$F$52, 0))</f>
         <v>Internal Audit</v>
       </c>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H101" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX(A5:A55, MATCH($F$2, $F$2:$F$52, 0))</f>
         <v>Assessor of Property</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H102" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX(A6:A56, MATCH($F$2, $F$2:$F$52, 0))</f>
         <v>Human Resources</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E100" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P100">
-      <sortCondition ref="E1:E100"/>
-    </sortState>
-  </autoFilter>
-  <dataValidations disablePrompts="1" count="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P54">
+    <sortCondition ref="F2:F54"/>
+  </sortState>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 B87" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
